--- a/forwardprimer-v3_13.xlsx
+++ b/forwardprimer-v3_13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_13" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1153-CCAAGACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAAGACTTCTCGTCGGCAGCGTC</t>
+    <t>F1153-AGGAGTGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGTGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1154-CCTGTACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTGTACAACTCGTCGGCAGCGTC</t>
+    <t>F1154-TGCTTCTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTTCTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1155-AGAGTACAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTACAGGTCGTCGGCAGCGTC</t>
+    <t>F1155-GCTTGTAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGTAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1156-TTCTGTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGTCTTGTCGTCGGCAGCGTC</t>
+    <t>F1156-GTACAAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACAAGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1157-TCACATCCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACATCCTGTCGTCGGCAGCGTC</t>
+    <t>F1157-TTCCAACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1158-GAACAACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAACACATCGTCGGCAGCGTC</t>
+    <t>F1158-GAACCAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCAGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1159-TGCAAGTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGTGTTTCGTCGGCAGCGTC</t>
+    <t>F1159-GAGTGGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGGTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1160-AGTCTTCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTTCTAGTCGTCGGCAGCGTC</t>
+    <t>F1160-ACAACCTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACCTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1161-TTCTCTTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCTTCTCTCGTCGGCAGCGTC</t>
+    <t>F1161-AACCAAGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAAGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1162-ACACACTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACACTGATTCGTCGGCAGCGTC</t>
+    <t>F1162-ACGAGAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAGAGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1163-TCACTCATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCATGATCGTCGGCAGCGTC</t>
+    <t>F1163-TCTTCATCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCATCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1164-ATGGTGTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTGTGTTTCGTCGGCAGCGTC</t>
+    <t>F1164-AACACACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACACCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1165-TGAGTTGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTTGGTATCGTCGGCAGCGTC</t>
+    <t>F1165-TGCATGGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCATGGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F1166-ATGGTGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTGAGAATCGTCGGCAGCGTC</t>
+    <t>F1166-AAGAACGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F1167-ACAGTTGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTTGGTCTCGTCGGCAGCGTC</t>
+    <t>F1167-CAGGATCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGGATCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F1168-ACTGTTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGTTGTCATCGTCGGCAGCGTC</t>
+    <t>F1168-GTCAGTTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGTTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F1169-TAGTAGAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTAGAGGATCGTCGGCAGCGTC</t>
+    <t>F1169-TTGTCCAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCCAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F1170-GAACACACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACACACATTCGTCGGCAGCGTC</t>
+    <t>F1170-AGATCCTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCCTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F1171-AGCAGGATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGGATCATCGTCGGCAGCGTC</t>
+    <t>F1171-CCTTCGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCGACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F1172-AAGACGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACGAGAATCGTCGGCAGCGTC</t>
+    <t>F1172-GTGAGATGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGATGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F1173-ATGACAGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACAGGAGTCGTCGGCAGCGTC</t>
+    <t>F1173-GAACCAAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCAAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F1174-AGCTACGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACGATGTCGTCGGCAGCGTC</t>
+    <t>F1174-ACGTGATCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTGATCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F1175-ACAGTTCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTTCCTATCGTCGGCAGCGTC</t>
+    <t>F1175-CAAGCTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCTCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F1176-AGCTCACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCACTCATCGTCGGCAGCGTC</t>
+    <t>F1176-CAACTACACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTACACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F1177-GAACTTCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTTCACTTCGTCGGCAGCGTC</t>
+    <t>F1177-CTAGCTAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCTAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F1178-AAGTCAGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCAGTCCTCGTCGGCAGCGTC</t>
+    <t>F1178-TCCTCAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCAACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F1179-TACTCACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCACACATCGTCGGCAGCGTC</t>
+    <t>F1179-AAGAGTACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGTACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F1180-TCGTCTTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCTTGAGTCGTCGGCAGCGTC</t>
+    <t>F1180-TAGGAAGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAAGAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F1181-ACACCTTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCTTCTATCGTCGGCAGCGTC</t>
+    <t>F1181-GAGTGAAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGAAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F1182-CTAGATCAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGATCAGCTCGTCGGCAGCGTC</t>
+    <t>F1182-CTTGACCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGACCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F1183-GCTGTACCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTACCTATCGTCGGCAGCGTC</t>
+    <t>F1183-ACATCGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCGTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F1184-CTTCGTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGTGTGATCGTCGGCAGCGTC</t>
+    <t>F1184-GTTGTGTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F1185-TCGAGTTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGTTCGTTCGTCGGCAGCGTC</t>
+    <t>F1185-ATCGAGTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGAGTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F1186-AGCAACCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAACCTTGTCGTCGGCAGCGTC</t>
+    <t>F1186-CACTGTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTGTCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F1187-CAGATGATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGATGATGCTCGTCGGCAGCGTC</t>
+    <t>F1187-CTCTGCATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGCATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F1188-ATCAGTCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGTCAGATCGTCGGCAGCGTC</t>
+    <t>F1188-TCACACTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACACTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1189-AACGTCTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCTGCATCGTCGGCAGCGTC</t>
+    <t>F1189-AGTTGCATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGCATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F1190-TGAAGGAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGGAGGATCGTCGGCAGCGTC</t>
+    <t>F1190-CAAGTACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F1191-GCTCACAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCACAAGTTCGTCGGCAGCGTC</t>
+    <t>F1191-GCATGGTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGGTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F1192-GCTACGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACGAAGATCGTCGGCAGCGTC</t>
+    <t>F1192-CTCAAGCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F1193-CGTGAAGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGAAGTACTCGTCGGCAGCGTC</t>
+    <t>F1193-ACGAGGTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAGGTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F1194-TTCAGCATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGCATCCTCGTCGGCAGCGTC</t>
+    <t>F1194-CGAGTCATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAGTCATCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F1195-GTGTTCCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTTCCTCTTCGTCGGCAGCGTC</t>
+    <t>F1195-TGAACGTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACGTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F1196-TCCTCAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCAGGAATCGTCGGCAGCGTC</t>
+    <t>F1196-AGAGGAACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGAACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F1197-TCATGCACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGCACTTTCGTCGGCAGCGTC</t>
+    <t>F1197-GCTTGATGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGATGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F1198-CAGAAGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAAGTAGATCGTCGGCAGCGTC</t>
+    <t>F1198-GAGTGATCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGATCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F1199-AGTGAACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAACTGTTCGTCGGCAGCGTC</t>
+    <t>F1199-GTCAGATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F1200-AGATGGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGGACTGTCGTCGGCAGCGTC</t>
+    <t>F1200-ATGAACCACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAACCACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F1201-TCAGCTGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCTGTGTTCGTCGGCAGCGTC</t>
+    <t>F1201-TACAGTCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGTCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F1202-ACTAGTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGTGGAATCGTCGGCAGCGTC</t>
+    <t>F1202-GATCAGCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCAGCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F1203-TCAAGCACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCACAGTCGTCGGCAGCGTC</t>
+    <t>F1203-GGTGTTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTTGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F1204-CCAGTTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAGTTGGAATCGTCGGCAGCGTC</t>
+    <t>F1204-AACAGTGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F1205-AAGCTACGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTACGTCTCGTCGGCAGCGTC</t>
+    <t>F1205-ATCACTCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCACTCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F1206-ACACGAAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACGAAGAATCGTCGGCAGCGTC</t>
+    <t>F1206-TGGACGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGACGAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F1207-ACACTGCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTGCTAGTCGTCGGCAGCGTC</t>
+    <t>F1207-GTCATGATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F1208-GAGTGGAAGT</t>
+    <t>F1208-CACTTCTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTTCTTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F1209-TGAGTAGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTAGGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F1210-GCACTAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACTAGGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F1211-GGTAGTTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGTTCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1212-TGAGCACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCACCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F1213-GAGTGGAAGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGAGTGGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F1209-TCACCAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACCAAGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F1210-GTTCAAGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAAGGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F1211-ACAAGACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGACACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F1212-GATGCTTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTTCCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F1213-AACCACTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCACTCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F1214-AGGTGAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGAGCTATCGTCGGCAGCGTC</t>
+    <t>F1214-AGATCAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F1215-GCACATGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACATGTAGTCGTCGGCAGCGTC</t>
+    <t>F1215-TACGAACTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGAACTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F1216-TCTGTCATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCATCCTCGTCGGCAGCGTC</t>
+    <t>F1216-AGTGAGAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAGAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F1217-GACTGAACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGAACTTTCGTCGGCAGCGTC</t>
+    <t>F1217-CATGTGGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTGGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F1218-AGAGAGTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAGTGACTCGTCGGCAGCGTC</t>
+    <t>F1218-TAGACAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACAGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F1219-TCCAGTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGTGTGATCGTCGGCAGCGTC</t>
+    <t>F1219-GGTAGGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGGTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F1220-GGTAGAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGAGGAATCGTCGGCAGCGTC</t>
+    <t>F1220-TGAGTCAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTCAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F1221-AACCAGAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAGAGCTTCGTCGGCAGCGTC</t>
+    <t>F1221-TCTAGTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGTCGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F1222-CTGGACTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGGACTAGATCGTCGGCAGCGTC</t>
+    <t>F1222-CACAGGTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACAGGTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F1223-TCACTGGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGGTGTTCGTCGGCAGCGTC</t>
+    <t>F1223-GTACGAAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACGAAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F1224-TCTTGGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGGTGAATCGTCGGCAGCGTC</t>
+    <t>F1224-TTGTGTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTGTGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F1225-TTGAGCAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGCAGGATCGTCGGCAGCGTC</t>
+    <t>F1225-AACAGGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGGAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F1226-AGTACAGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACAGTGGTCGTCGGCAGCGTC</t>
+    <t>F1226-ACACAACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F1227-GAGTCAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCAGAAGTCGTCGGCAGCGTC</t>
+    <t>F1227-TGATGTCTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGTCTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F1228-TGACCTTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCTTGTGTCGTCGGCAGCGTC</t>
+    <t>F1228-TGATGGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGGATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F1229-GGATGAACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGAACTATCGTCGGCAGCGTC</t>
+    <t>F1229-GACACGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACACGTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F1230-GGATCACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATCACTGTTCGTCGGCAGCGTC</t>
+    <t>F1230-CAACTCGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F1231-ACGACTGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGACTGAGATCGTCGGCAGCGTC</t>
+    <t>F1231-CGTTCTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCTGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F1232-GTACGACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACGACAAGTCGTCGGCAGCGTC</t>
+    <t>F1232-GCATGAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F1233-CTACCTCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCTCTAGTCGTCGGCAGCGTC</t>
+    <t>F1233-TTCCACAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCACAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F1234-ACAGAGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGAGAAGATCGTCGGCAGCGTC</t>
+    <t>F1234-CATCTTGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTTGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F1235-CGTCGATCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCGATCATTCGTCGGCAGCGTC</t>
+    <t>F1235-CAACAGACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F1236-GTGAGTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGTCAAGTCGTCGGCAGCGTC</t>
+    <t>F1236-TGGTACCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTACCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F1237-AAGCACACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACACAATCGTCGGCAGCGTC</t>
+    <t>F1237-ATCTGTTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGTTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F1238-AACGACGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGACGAACTCGTCGGCAGCGTC</t>
+    <t>F1238-GACTACACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTACACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F1239-AACACTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACTGGAATCGTCGGCAGCGTC</t>
+    <t>F1239-GGAGAGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGAGAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F1240-TTCTACGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTACGAACTCGTCGGCAGCGTC</t>
+    <t>F1240-GAGAACTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAACTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F1241-GACCTACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACCTACTTGTCGTCGGCAGCGTC</t>
+    <t>F1241-TGCTACTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTACTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F1242-TCTCTCTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTCTAGGTCGTCGGCAGCGTC</t>
+    <t>F1242-ATCCTTCTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTTCTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F1243-AACAACCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAACCTACTCGTCGGCAGCGTC</t>
+    <t>F1243-TCTCTGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F1244-GTGTCAACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCAACGATCGTCGGCAGCGTC</t>
+    <t>F1244-CACTCTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTCTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F1245-AGCTACATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACATGGTCGTCGGCAGCGTC</t>
+    <t>F1245-GATCATCGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCATCGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F1246-AGACGTAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACGTAGACTCGTCGGCAGCGTC</t>
+    <t>F1246-TCATGGTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGGTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F1247-AACTCTACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTACCTTCGTCGGCAGCGTC</t>
+    <t>F1247-CCTTGCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGCTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1248-GCTCTGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCTGAGAATCGTCGGCAGCGTC</t>
+    <t>F1248-ACGTAGTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTAGTAGGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
